--- a/form1/grs_atualizado_form1.xlsx
+++ b/form1/grs_atualizado_form1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="grs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -41,7 +41,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
@@ -98,6 +98,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FF6400"/>
+        <bgColor rgb="00FF6400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00006400"/>
         <bgColor rgb="00006400"/>
       </patternFill>
@@ -129,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -140,13 +146,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -623,9 +632,13 @@
           <t>Paula Tatiana Santana Vechi</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n"/>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F2" s="3" t="n"/>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -640,7 +653,7 @@
       <c r="K2" s="3" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -658,9 +671,13 @@
           <t>willian de oliveira lino</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n"/>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F3" s="3" t="n"/>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -693,9 +710,13 @@
           <t>Gisele Cássia Tamparowsky de Oliveira</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n"/>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F4" s="3" t="n"/>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -710,7 +731,7 @@
       <c r="K4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -728,7 +749,7 @@
           <t>Marcos Gabriel Franciosi Borges</t>
         </is>
       </c>
-      <c r="E5" s="6" t="inlineStr">
+      <c r="E5" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -738,7 +759,7 @@
           <t>21/03/2025</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -753,7 +774,7 @@
       <c r="K5" s="3" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -771,9 +792,13 @@
           <t>Geni Rodrigues da Silva morais</t>
         </is>
       </c>
-      <c r="E6" s="3" t="n"/>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F6" s="3" t="n"/>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -806,7 +831,7 @@
           <t>Solange Maria Masqueti</t>
         </is>
       </c>
-      <c r="E7" s="6" t="inlineStr">
+      <c r="E7" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -816,7 +841,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -831,7 +856,7 @@
       <c r="K7" s="3" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="inlineStr">
+      <c r="A8" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -849,7 +874,7 @@
           <t>Cristiane Petry Vieira</t>
         </is>
       </c>
-      <c r="E8" s="6" t="inlineStr">
+      <c r="E8" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -859,7 +884,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -874,7 +899,7 @@
       <c r="K8" s="3" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -892,9 +917,13 @@
           <t>Diego Hemerich</t>
         </is>
       </c>
-      <c r="E9" s="3" t="n"/>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F9" s="3" t="n"/>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -909,7 +938,7 @@
       <c r="K9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -927,7 +956,7 @@
           <t>Tatiane Girardi</t>
         </is>
       </c>
-      <c r="E10" s="6" t="inlineStr">
+      <c r="E10" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -937,7 +966,7 @@
           <t>06/03/2025</t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -952,7 +981,7 @@
       <c r="K10" s="3" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="inlineStr">
+      <c r="A11" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -970,9 +999,13 @@
           <t>Gabriela Fernanda Sandri</t>
         </is>
       </c>
-      <c r="E11" s="3" t="n"/>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F11" s="3" t="n"/>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -987,7 +1020,7 @@
       <c r="K11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="inlineStr">
+      <c r="A12" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -1005,9 +1038,13 @@
           <t>Edson Batista de Castro</t>
         </is>
       </c>
-      <c r="E12" s="3" t="n"/>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F12" s="3" t="n"/>
-      <c r="G12" s="4" t="inlineStr">
+      <c r="G12" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1022,7 +1059,7 @@
       <c r="K12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="inlineStr">
+      <c r="A13" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -1040,9 +1077,13 @@
           <t>Eduarda rohden donasolo</t>
         </is>
       </c>
-      <c r="E13" s="3" t="n"/>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F13" s="3" t="n"/>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1057,7 +1098,7 @@
       <c r="K13" s="3" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="inlineStr">
+      <c r="A14" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -1075,9 +1116,13 @@
           <t>Kelly Regina linzmeier de Lima</t>
         </is>
       </c>
-      <c r="E14" s="3" t="n"/>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F14" s="3" t="n"/>
-      <c r="G14" s="4" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1092,7 +1137,7 @@
       <c r="K14" s="3" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -1106,9 +1151,13 @@
         <v>5</v>
       </c>
       <c r="D15" s="3" t="n"/>
-      <c r="E15" s="3" t="n"/>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F15" s="3" t="n"/>
-      <c r="G15" s="4" t="inlineStr">
+      <c r="G15" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1123,7 +1172,7 @@
       <c r="K15" s="3" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="inlineStr">
+      <c r="A16" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -1137,9 +1186,13 @@
         <v>6</v>
       </c>
       <c r="D16" s="3" t="n"/>
-      <c r="E16" s="3" t="n"/>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F16" s="3" t="n"/>
-      <c r="G16" s="4" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1154,7 +1207,7 @@
       <c r="K16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1172,9 +1225,13 @@
           <t>Cristina Harumi Enokida</t>
         </is>
       </c>
-      <c r="E17" s="3" t="n"/>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F17" s="3" t="n"/>
-      <c r="G17" s="4" t="inlineStr">
+      <c r="G17" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1189,7 +1246,7 @@
       <c r="K17" s="3" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="inlineStr">
+      <c r="A18" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1207,17 +1264,17 @@
           <t>Douglas de Mattia / Alvaro Rodrigues</t>
         </is>
       </c>
-      <c r="E18" s="6" t="inlineStr">
+      <c r="E18" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>26/02/2025</t>
-        </is>
-      </c>
-      <c r="G18" s="9" t="inlineStr">
+          <t>01/04/2025</t>
+        </is>
+      </c>
+      <c r="G18" s="10" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1232,7 +1289,7 @@
       <c r="K18" s="3" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1250,9 +1307,13 @@
           <t>Vanderson Pasetti</t>
         </is>
       </c>
-      <c r="E19" s="3" t="n"/>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F19" s="3" t="n"/>
-      <c r="G19" s="4" t="inlineStr">
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1267,7 +1328,7 @@
       <c r="K19" s="3" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="inlineStr">
+      <c r="A20" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1285,7 +1346,7 @@
           <t>Bruna Schneider Guimarães</t>
         </is>
       </c>
-      <c r="E20" s="6" t="inlineStr">
+      <c r="E20" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1295,7 +1356,7 @@
           <t>19/03/2025</t>
         </is>
       </c>
-      <c r="G20" s="9" t="inlineStr">
+      <c r="G20" s="10" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -1310,7 +1371,7 @@
       <c r="K20" s="3" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1328,7 +1389,7 @@
           <t>Keilla Avezedo</t>
         </is>
       </c>
-      <c r="E21" s="6" t="inlineStr">
+      <c r="E21" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1338,7 +1399,7 @@
           <t>10/03/2025</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
+      <c r="G21" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1353,7 +1414,7 @@
       <c r="K21" s="3" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="inlineStr">
+      <c r="A22" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1367,9 +1428,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="3" t="n"/>
-      <c r="E22" s="3" t="n"/>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F22" s="3" t="n"/>
-      <c r="G22" s="4" t="inlineStr">
+      <c r="G22" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1384,7 +1449,7 @@
       <c r="K22" s="3" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="inlineStr">
+      <c r="A23" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -1402,9 +1467,13 @@
           <t>thiago varaschim cenci</t>
         </is>
       </c>
-      <c r="E23" s="3" t="n"/>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F23" s="3" t="n"/>
-      <c r="G23" s="4" t="inlineStr">
+      <c r="G23" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1419,7 +1488,7 @@
       <c r="K23" s="3" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="10" t="inlineStr">
+      <c r="A24" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1437,9 +1506,13 @@
           <t>Andrea Carla Winkelmann</t>
         </is>
       </c>
-      <c r="E24" s="3" t="n"/>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F24" s="3" t="n"/>
-      <c r="G24" s="4" t="inlineStr">
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1454,7 +1527,7 @@
       <c r="K24" s="3" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="inlineStr">
+      <c r="A25" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1472,9 +1545,13 @@
           <t>Lorizete de Andrade</t>
         </is>
       </c>
-      <c r="E25" s="3" t="n"/>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F25" s="3" t="n"/>
-      <c r="G25" s="4" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1489,7 +1566,7 @@
       <c r="K25" s="3" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="inlineStr">
+      <c r="A26" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1507,9 +1584,13 @@
           <t>Andressa Maia</t>
         </is>
       </c>
-      <c r="E26" s="3" t="n"/>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F26" s="3" t="n"/>
-      <c r="G26" s="4" t="inlineStr">
+      <c r="G26" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1524,7 +1605,7 @@
       <c r="K26" s="3" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="inlineStr">
+      <c r="A27" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1542,9 +1623,13 @@
           <t>Lucas Correia de Souza</t>
         </is>
       </c>
-      <c r="E27" s="3" t="n"/>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F27" s="3" t="n"/>
-      <c r="G27" s="4" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1559,7 +1644,7 @@
       <c r="K27" s="3" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="inlineStr">
+      <c r="A28" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1577,9 +1662,13 @@
           <t>Jose Francisco Mariano de Faria Filho</t>
         </is>
       </c>
-      <c r="E28" s="3" t="n"/>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F28" s="3" t="n"/>
-      <c r="G28" s="4" t="inlineStr">
+      <c r="G28" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1594,7 +1683,7 @@
       <c r="K28" s="3" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="inlineStr">
+      <c r="A29" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1612,9 +1701,13 @@
           <t>Pedro Henrique Mariano de Faria</t>
         </is>
       </c>
-      <c r="E29" s="3" t="n"/>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F29" s="3" t="n"/>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1629,7 +1722,7 @@
       <c r="K29" s="3" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="inlineStr">
+      <c r="A30" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -1647,9 +1740,13 @@
           <t>Renata Aparecida de Souza</t>
         </is>
       </c>
-      <c r="E30" s="3" t="n"/>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F30" s="3" t="n"/>
-      <c r="G30" s="4" t="inlineStr">
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1682,9 +1779,13 @@
           <t>Paulo Rogerio Hiroshi Fujii</t>
         </is>
       </c>
-      <c r="E31" s="3" t="n"/>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F31" s="3" t="n"/>
-      <c r="G31" s="4" t="inlineStr">
+      <c r="G31" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1717,9 +1818,13 @@
           <t>Marlene R. Oliveira Dallacosta</t>
         </is>
       </c>
-      <c r="E32" s="3" t="n"/>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F32" s="3" t="n"/>
-      <c r="G32" s="4" t="inlineStr">
+      <c r="G32" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1734,7 +1839,7 @@
       <c r="K32" s="3" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="inlineStr">
+      <c r="A33" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1752,7 +1857,7 @@
           <t>Vitolor dos Santos Almeida</t>
         </is>
       </c>
-      <c r="E33" s="6" t="inlineStr">
+      <c r="E33" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1762,7 +1867,7 @@
           <t>08/03/2025</t>
         </is>
       </c>
-      <c r="G33" s="4" t="inlineStr">
+      <c r="G33" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1777,7 +1882,7 @@
       <c r="K33" s="3" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="inlineStr">
+      <c r="A34" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1795,7 +1900,7 @@
           <t>Kelly Jackeline Silva do Valle</t>
         </is>
       </c>
-      <c r="E34" s="6" t="inlineStr">
+      <c r="E34" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1805,7 +1910,7 @@
           <t>24/03/2025</t>
         </is>
       </c>
-      <c r="G34" s="4" t="inlineStr">
+      <c r="G34" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1820,7 +1925,7 @@
       <c r="K34" s="3" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="inlineStr">
+      <c r="A35" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1838,7 +1943,7 @@
           <t>Felipe Carvalho Zydek</t>
         </is>
       </c>
-      <c r="E35" s="6" t="inlineStr">
+      <c r="E35" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1848,7 +1953,7 @@
           <t>13/03/2025</t>
         </is>
       </c>
-      <c r="G35" s="4" t="inlineStr">
+      <c r="G35" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1863,7 +1968,7 @@
       <c r="K35" s="3" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="inlineStr">
+      <c r="A36" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -1881,7 +1986,7 @@
           <t>Eliane Borin</t>
         </is>
       </c>
-      <c r="E36" s="6" t="inlineStr">
+      <c r="E36" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -1891,7 +1996,7 @@
           <t>18/03/2025</t>
         </is>
       </c>
-      <c r="G36" s="4" t="inlineStr">
+      <c r="G36" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1906,7 +2011,7 @@
       <c r="K36" s="3" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="inlineStr">
+      <c r="A37" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -1924,9 +2029,13 @@
           <t>Tatiana schrard</t>
         </is>
       </c>
-      <c r="E37" s="3" t="n"/>
+      <c r="E37" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F37" s="3" t="n"/>
-      <c r="G37" s="4" t="inlineStr">
+      <c r="G37" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1941,7 +2050,7 @@
       <c r="K37" s="3" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="inlineStr">
+      <c r="A38" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -1959,9 +2068,13 @@
           <t>Francilaine Cavalini de Oliveira</t>
         </is>
       </c>
-      <c r="E38" s="3" t="n"/>
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F38" s="3" t="n"/>
-      <c r="G38" s="4" t="inlineStr">
+      <c r="G38" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -1976,7 +2089,7 @@
       <c r="K38" s="3" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="inlineStr">
+      <c r="A39" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -1994,9 +2107,13 @@
           <t>Ailton Carlos Fialho</t>
         </is>
       </c>
-      <c r="E39" s="3" t="n"/>
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F39" s="3" t="n"/>
-      <c r="G39" s="4" t="inlineStr">
+      <c r="G39" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2011,7 +2128,7 @@
       <c r="K39" s="3" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="8" t="inlineStr">
+      <c r="A40" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2025,9 +2142,13 @@
         <v>1</v>
       </c>
       <c r="D40" s="3" t="n"/>
-      <c r="E40" s="3" t="n"/>
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F40" s="3" t="n"/>
-      <c r="G40" s="4" t="inlineStr">
+      <c r="G40" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2042,7 +2163,7 @@
       <c r="K40" s="3" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="8" t="inlineStr">
+      <c r="A41" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2056,9 +2177,13 @@
         <v>2</v>
       </c>
       <c r="D41" s="3" t="n"/>
-      <c r="E41" s="3" t="n"/>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F41" s="3" t="n"/>
-      <c r="G41" s="4" t="inlineStr">
+      <c r="G41" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2091,9 +2216,13 @@
           <t>Cleiton Manske</t>
         </is>
       </c>
-      <c r="E42" s="3" t="n"/>
+      <c r="E42" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F42" s="3" t="n"/>
-      <c r="G42" s="4" t="inlineStr">
+      <c r="G42" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2108,7 +2237,7 @@
       <c r="K42" s="3" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="10" t="inlineStr">
+      <c r="A43" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -2126,9 +2255,13 @@
           <t>Alexandro Aparecido de Lima Vieira</t>
         </is>
       </c>
-      <c r="E43" s="3" t="n"/>
+      <c r="E43" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F43" s="3" t="n"/>
-      <c r="G43" s="4" t="inlineStr">
+      <c r="G43" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2143,7 +2276,7 @@
       <c r="K43" s="3" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="10" t="inlineStr">
+      <c r="A44" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -2161,7 +2294,7 @@
           <t>Natielly Pereira Ochoa</t>
         </is>
       </c>
-      <c r="E44" s="6" t="inlineStr">
+      <c r="E44" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2171,7 +2304,7 @@
           <t>18/03/2025</t>
         </is>
       </c>
-      <c r="G44" s="4" t="inlineStr">
+      <c r="G44" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2204,9 +2337,13 @@
           <t>Roberto Pedron</t>
         </is>
       </c>
-      <c r="E45" s="3" t="n"/>
+      <c r="E45" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F45" s="3" t="n"/>
-      <c r="G45" s="4" t="inlineStr">
+      <c r="G45" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2221,7 +2358,7 @@
       <c r="K45" s="3" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="8" t="inlineStr">
+      <c r="A46" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2239,7 +2376,7 @@
           <t>Luciane Spies</t>
         </is>
       </c>
-      <c r="E46" s="6" t="inlineStr">
+      <c r="E46" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2249,7 +2386,7 @@
           <t>18/03/2025</t>
         </is>
       </c>
-      <c r="G46" s="9" t="inlineStr">
+      <c r="G46" s="10" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2282,9 +2419,13 @@
           <t>Jaqueline Fernanda Meireles</t>
         </is>
       </c>
-      <c r="E47" s="3" t="n"/>
+      <c r="E47" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F47" s="3" t="n"/>
-      <c r="G47" s="4" t="inlineStr">
+      <c r="G47" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2299,7 +2440,7 @@
       <c r="K47" s="3" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="7" t="inlineStr">
+      <c r="A48" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -2317,9 +2458,13 @@
           <t>Luiz Fernando Pereira Barbosa</t>
         </is>
       </c>
-      <c r="E48" s="3" t="n"/>
+      <c r="E48" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F48" s="3" t="n"/>
-      <c r="G48" s="4" t="inlineStr">
+      <c r="G48" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2352,9 +2497,13 @@
           <t>Carolina Eggers</t>
         </is>
       </c>
-      <c r="E49" s="3" t="n"/>
+      <c r="E49" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F49" s="3" t="n"/>
-      <c r="G49" s="4" t="inlineStr">
+      <c r="G49" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2387,7 +2536,7 @@
           <t>Gabriela Carvalho</t>
         </is>
       </c>
-      <c r="E50" s="6" t="inlineStr">
+      <c r="E50" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2397,7 +2546,7 @@
           <t>27/03/2025</t>
         </is>
       </c>
-      <c r="G50" s="4" t="inlineStr">
+      <c r="G50" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2430,9 +2579,13 @@
           <t>Dorival Manoel Canhete</t>
         </is>
       </c>
-      <c r="E51" s="3" t="n"/>
+      <c r="E51" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F51" s="3" t="n"/>
-      <c r="G51" s="4" t="inlineStr">
+      <c r="G51" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2447,7 +2600,7 @@
       <c r="K51" s="3" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="8" t="inlineStr">
+      <c r="A52" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2465,7 +2618,7 @@
           <t>Jaqueline Vanelli</t>
         </is>
       </c>
-      <c r="E52" s="6" t="inlineStr">
+      <c r="E52" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2475,7 +2628,7 @@
           <t>27/02/2025</t>
         </is>
       </c>
-      <c r="G52" s="9" t="inlineStr">
+      <c r="G52" s="10" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2512,9 +2665,13 @@
           <t>Fernanda Jung</t>
         </is>
       </c>
-      <c r="E53" s="3" t="n"/>
+      <c r="E53" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F53" s="3" t="n"/>
-      <c r="G53" s="4" t="inlineStr">
+      <c r="G53" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2529,7 +2686,7 @@
       <c r="K53" s="3" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="8" t="inlineStr">
+      <c r="A54" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2547,9 +2704,13 @@
           <t>Ana Paula Romagnoli</t>
         </is>
       </c>
-      <c r="E54" s="3" t="n"/>
+      <c r="E54" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F54" s="3" t="n"/>
-      <c r="G54" s="4" t="inlineStr">
+      <c r="G54" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2564,7 +2725,7 @@
       <c r="K54" s="3" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="8" t="inlineStr">
+      <c r="A55" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2582,9 +2743,13 @@
           <t>Isabel Caroline Fruhling</t>
         </is>
       </c>
-      <c r="E55" s="3" t="n"/>
+      <c r="E55" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F55" s="3" t="n"/>
-      <c r="G55" s="4" t="inlineStr">
+      <c r="G55" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2599,7 +2764,7 @@
       <c r="K55" s="3" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="inlineStr">
+      <c r="A56" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2617,9 +2782,13 @@
           <t>Marina Ancelmo da Silva</t>
         </is>
       </c>
-      <c r="E56" s="3" t="n"/>
+      <c r="E56" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F56" s="3" t="n"/>
-      <c r="G56" s="4" t="inlineStr">
+      <c r="G56" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2634,7 +2803,7 @@
       <c r="K56" s="3" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="inlineStr">
+      <c r="A57" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2652,7 +2821,7 @@
           <t>Ana Carolina Peterle Ribeiro</t>
         </is>
       </c>
-      <c r="E57" s="6" t="inlineStr">
+      <c r="E57" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2662,7 +2831,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G57" s="9" t="inlineStr">
+      <c r="G57" s="10" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2677,7 +2846,7 @@
       <c r="K57" s="3" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="10" t="inlineStr">
+      <c r="A58" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -2695,9 +2864,13 @@
           <t>Taiane Amélia Mondardo</t>
         </is>
       </c>
-      <c r="E58" s="3" t="n"/>
+      <c r="E58" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F58" s="3" t="n"/>
-      <c r="G58" s="4" t="inlineStr">
+      <c r="G58" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2712,7 +2885,7 @@
       <c r="K58" s="3" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="inlineStr">
+      <c r="A59" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2730,17 +2903,17 @@
           <t>Adnan navarro de freitas kassim</t>
         </is>
       </c>
-      <c r="E59" s="6" t="inlineStr">
+      <c r="E59" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>11/03/2025</t>
-        </is>
-      </c>
-      <c r="G59" s="9" t="inlineStr">
+          <t>31/03/2025</t>
+        </is>
+      </c>
+      <c r="G59" s="10" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
@@ -2759,7 +2932,7 @@
       <c r="K59" s="3" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="10" t="inlineStr">
+      <c r="A60" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -2777,9 +2950,13 @@
           <t>Andryws Rafael Gois</t>
         </is>
       </c>
-      <c r="E60" s="3" t="n"/>
+      <c r="E60" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F60" s="3" t="n"/>
-      <c r="G60" s="4" t="inlineStr">
+      <c r="G60" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2794,7 +2971,7 @@
       <c r="K60" s="3" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="8" t="inlineStr">
+      <c r="A61" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -2812,9 +2989,13 @@
           <t>Mayara Ketllyn de Paula Rosetti</t>
         </is>
       </c>
-      <c r="E61" s="3" t="n"/>
+      <c r="E61" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F61" s="3" t="n"/>
-      <c r="G61" s="4" t="inlineStr">
+      <c r="G61" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2829,7 +3010,7 @@
       <c r="K61" s="3" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="10" t="inlineStr">
+      <c r="A62" s="11" t="inlineStr">
         <is>
           <t>Larissa</t>
         </is>
@@ -2847,9 +3028,13 @@
           <t>Junior Andre Britzke</t>
         </is>
       </c>
-      <c r="E62" s="3" t="n"/>
+      <c r="E62" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F62" s="3" t="n"/>
-      <c r="G62" s="4" t="inlineStr">
+      <c r="G62" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2882,9 +3067,13 @@
           <t>Adriano Pereira Guedes</t>
         </is>
       </c>
-      <c r="E63" s="3" t="n"/>
+      <c r="E63" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F63" s="3" t="n"/>
-      <c r="G63" s="4" t="inlineStr">
+      <c r="G63" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2917,9 +3106,13 @@
           <t xml:space="preserve">Graziela Gobbato / Suzana Cristina de Almeida </t>
         </is>
       </c>
-      <c r="E64" s="3" t="n"/>
+      <c r="E64" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F64" s="3" t="n"/>
-      <c r="G64" s="4" t="inlineStr">
+      <c r="G64" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2934,7 +3127,7 @@
       <c r="K64" s="3" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="5" t="inlineStr">
+      <c r="A65" s="6" t="inlineStr">
         <is>
           <t>Bianca</t>
         </is>
@@ -2952,7 +3145,7 @@
           <t>Alice Cristiane Zancheta</t>
         </is>
       </c>
-      <c r="E65" s="6" t="inlineStr">
+      <c r="E65" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -2962,7 +3155,7 @@
           <t>20/03/2025</t>
         </is>
       </c>
-      <c r="G65" s="4" t="inlineStr">
+      <c r="G65" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -2977,7 +3170,7 @@
       <c r="K65" s="3" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="7" t="inlineStr">
+      <c r="A66" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -2995,7 +3188,7 @@
           <t>Fernanda kaezer de Godoy</t>
         </is>
       </c>
-      <c r="E66" s="6" t="inlineStr">
+      <c r="E66" s="7" t="inlineStr">
         <is>
           <t>Enviado</t>
         </is>
@@ -3005,7 +3198,7 @@
           <t>12/03/2025</t>
         </is>
       </c>
-      <c r="G66" s="4" t="inlineStr">
+      <c r="G66" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3020,7 +3213,7 @@
       <c r="K66" s="3" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="7" t="inlineStr">
+      <c r="A67" s="8" t="inlineStr">
         <is>
           <t>Valquiria</t>
         </is>
@@ -3038,9 +3231,13 @@
           <t xml:space="preserve">Ademir Papini Júnior </t>
         </is>
       </c>
-      <c r="E67" s="3" t="n"/>
+      <c r="E67" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F67" s="3" t="n"/>
-      <c r="G67" s="4" t="inlineStr">
+      <c r="G67" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>
@@ -3055,7 +3252,7 @@
       <c r="K67" s="3" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="8" t="inlineStr">
+      <c r="A68" s="9" t="inlineStr">
         <is>
           <t>Luana</t>
         </is>
@@ -3073,9 +3270,13 @@
           <t>Heloísa Maria Beloni Insenha</t>
         </is>
       </c>
-      <c r="E68" s="3" t="n"/>
+      <c r="E68" s="4" t="inlineStr">
+        <is>
+          <t>Atrasado</t>
+        </is>
+      </c>
       <c r="F68" s="3" t="n"/>
-      <c r="G68" s="4" t="inlineStr">
+      <c r="G68" s="5" t="inlineStr">
         <is>
           <t>Não</t>
         </is>

--- a/form1/grs_atualizado_form1.xlsx
+++ b/form1/grs_atualizado_form1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="grs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/form1/grs_atualizado_form1.xlsx
+++ b/form1/grs_atualizado_form1.xlsx
@@ -41,7 +41,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill/>
     </fill>
@@ -108,6 +108,12 @@
         <bgColor rgb="00006400"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A020F0"/>
+        <bgColor rgb="00A020F0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -135,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -168,6 +174,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,8 +556,8 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="51" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="87" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="76" customWidth="1" min="8" max="8"/>
     <col width="34" customWidth="1" min="9" max="9"/>
@@ -792,12 +801,16 @@
           <t>Geni Rodrigues da Silva morais</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="n"/>
+      <c r="E6" s="7" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>10/04/2025</t>
+        </is>
+      </c>
       <c r="G6" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -999,12 +1012,16 @@
           <t>Gabriela Fernanda Sandri</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="n"/>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>10/04/2025</t>
+        </is>
+      </c>
       <c r="G11" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1038,12 +1055,16 @@
           <t>Edson Batista de Castro</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F12" s="3" t="n"/>
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>10/04/2025</t>
+        </is>
+      </c>
       <c r="G12" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1077,12 +1098,16 @@
           <t>Eduarda rohden donasolo</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="n"/>
+      <c r="E13" s="7" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>10/04/2025</t>
+        </is>
+      </c>
       <c r="G13" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1116,12 +1141,16 @@
           <t>Kelly Regina linzmeier de Lima</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="n"/>
+      <c r="E14" s="7" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>10/04/2025</t>
+        </is>
+      </c>
       <c r="G14" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1151,12 +1180,16 @@
         <v>5</v>
       </c>
       <c r="D15" s="3" t="n"/>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="n"/>
+      <c r="E15" s="7" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>10/04/2025</t>
+        </is>
+      </c>
       <c r="G15" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1186,12 +1219,16 @@
         <v>6</v>
       </c>
       <c r="D16" s="3" t="n"/>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="n"/>
+      <c r="E16" s="7" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>10/04/2025</t>
+        </is>
+      </c>
       <c r="G16" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1271,7 +1308,7 @@
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>01/04/2025</t>
+          <t>26/02/2025</t>
         </is>
       </c>
       <c r="G18" s="10" t="inlineStr">
@@ -1467,12 +1504,16 @@
           <t>thiago varaschim cenci</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F23" s="3" t="n"/>
+      <c r="E23" s="7" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>15/04/2025</t>
+        </is>
+      </c>
       <c r="G23" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -1857,14 +1898,14 @@
           <t>Vitolor dos Santos Almeida</t>
         </is>
       </c>
-      <c r="E33" s="7" t="inlineStr">
-        <is>
-          <t>Enviado</t>
+      <c r="E33" s="12" t="inlineStr">
+        <is>
+          <t>Envio Duplicado</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>08/03/2025</t>
+          <t>08/03/2025, 02/04/2025</t>
         </is>
       </c>
       <c r="G33" s="5" t="inlineStr">
@@ -2029,12 +2070,16 @@
           <t>Tatiana schrard</t>
         </is>
       </c>
-      <c r="E37" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F37" s="3" t="n"/>
+      <c r="E37" s="7" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>04/04/2025</t>
+        </is>
+      </c>
       <c r="G37" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2255,12 +2300,16 @@
           <t>Alexandro Aparecido de Lima Vieira</t>
         </is>
       </c>
-      <c r="E43" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F43" s="3" t="n"/>
+      <c r="E43" s="7" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>02/04/2025</t>
+        </is>
+      </c>
       <c r="G43" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2458,12 +2507,16 @@
           <t>Luiz Fernando Pereira Barbosa</t>
         </is>
       </c>
-      <c r="E48" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F48" s="3" t="n"/>
+      <c r="E48" s="7" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>16/04/2025</t>
+        </is>
+      </c>
       <c r="G48" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2497,12 +2550,16 @@
           <t>Carolina Eggers</t>
         </is>
       </c>
-      <c r="E49" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F49" s="3" t="n"/>
+      <c r="E49" s="7" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="inlineStr">
+        <is>
+          <t>31/03/2025</t>
+        </is>
+      </c>
       <c r="G49" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2665,12 +2722,16 @@
           <t>Fernanda Jung</t>
         </is>
       </c>
-      <c r="E53" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F53" s="3" t="n"/>
+      <c r="E53" s="7" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
       <c r="G53" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2704,12 +2765,16 @@
           <t>Ana Paula Romagnoli</t>
         </is>
       </c>
-      <c r="E54" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F54" s="3" t="n"/>
+      <c r="E54" s="7" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="inlineStr">
+        <is>
+          <t>07/04/2025</t>
+        </is>
+      </c>
       <c r="G54" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2743,12 +2808,16 @@
           <t>Isabel Caroline Fruhling</t>
         </is>
       </c>
-      <c r="E55" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F55" s="3" t="n"/>
+      <c r="E55" s="7" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
       <c r="G55" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2910,7 +2979,7 @@
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>31/03/2025</t>
+          <t>11/03/2025</t>
         </is>
       </c>
       <c r="G59" s="10" t="inlineStr">
@@ -2950,12 +3019,16 @@
           <t>Andryws Rafael Gois</t>
         </is>
       </c>
-      <c r="E60" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F60" s="3" t="n"/>
+      <c r="E60" s="7" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="inlineStr">
+        <is>
+          <t>22/04/2025</t>
+        </is>
+      </c>
       <c r="G60" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -2989,12 +3062,16 @@
           <t>Mayara Ketllyn de Paula Rosetti</t>
         </is>
       </c>
-      <c r="E61" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F61" s="3" t="n"/>
+      <c r="E61" s="7" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
       <c r="G61" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3028,12 +3105,16 @@
           <t>Junior Andre Britzke</t>
         </is>
       </c>
-      <c r="E62" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F62" s="3" t="n"/>
+      <c r="E62" s="7" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="inlineStr">
+        <is>
+          <t>08/04/2025</t>
+        </is>
+      </c>
       <c r="G62" s="5" t="inlineStr">
         <is>
           <t>Não</t>
@@ -3067,12 +3148,16 @@
           <t>Adriano Pereira Guedes</t>
         </is>
       </c>
-      <c r="E63" s="4" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F63" s="3" t="n"/>
+      <c r="E63" s="12" t="inlineStr">
+        <is>
+          <t>Envio Duplicado</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="inlineStr">
+        <is>
+          <t>03/04/2025, 04/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 15/04/2025, 12/05/2025</t>
+        </is>
+      </c>
       <c r="G63" s="5" t="inlineStr">
         <is>
           <t>Não</t>

--- a/form1/grs_atualizado_form1.xlsx
+++ b/form1/grs_atualizado_form1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="grs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="grs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,7 +556,7 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="51" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
     <col width="87" customWidth="1" min="6" max="6"/>
     <col width="27" customWidth="1" min="7" max="7"/>
     <col width="76" customWidth="1" min="8" max="8"/>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="E33" s="12" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="E63" s="12" t="inlineStr">
         <is>
-          <t>Envio Duplicado</t>
+          <t>Duplicado</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
